--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100825</v>
+        <v>100826</v>
       </c>
       <c r="D2" t="n">
         <v>18993</v>
       </c>
       <c r="E2" t="n">
-        <v>327343430</v>
+        <v>327347554</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14357</v>
+        <v>14361</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36188431</v>
+        <v>36190509</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D74" t="n">
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>4258463</v>
+        <v>4266554</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="D83" t="n">
         <v>616</v>
       </c>
       <c r="E83" t="n">
-        <v>115637103</v>
+        <v>115697749</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409124</v>
+        <v>409127</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1595265495</v>
+        <v>1595300380</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209584</v>
+        <v>209592</v>
       </c>
       <c r="D93" t="n">
         <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308933920</v>
+        <v>1309153481</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94194</v>
+        <v>94195</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>917476940</v>
+        <v>917486940</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50766</v>
+        <v>50768</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>932507917</v>
+        <v>932648032</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17278</v>
+        <v>17287</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>793268553</v>
+        <v>793812185</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D99" t="n">
         <v>37</v>
       </c>
       <c r="E99" t="n">
-        <v>25735853</v>
+        <v>25935853</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D100" t="n">
         <v>86</v>
       </c>
       <c r="E100" t="n">
-        <v>66303800</v>
+        <v>66473777</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135240</v>
+        <v>135242</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272208155</v>
+        <v>272218580</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80782</v>
+        <v>80783</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>486173567</v>
+        <v>486175817</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14714</v>
+        <v>14718</v>
       </c>
       <c r="D177" t="n">
         <v>2256</v>
       </c>
       <c r="E177" t="n">
-        <v>251432676</v>
+        <v>251572342</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
